--- a/natmiOut/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Grn-Tnfrsf1a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H2">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I2">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J2">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N2">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O2">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P2">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q2">
-        <v>755.8944828071507</v>
+        <v>1024.85116231883</v>
       </c>
       <c r="R2">
-        <v>755.8944828071507</v>
+        <v>9223.660460869469</v>
       </c>
       <c r="S2">
-        <v>0.005312932214395034</v>
+        <v>0.006284890474731019</v>
       </c>
       <c r="T2">
-        <v>0.005312932214395034</v>
+        <v>0.00660571875913038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H3">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I3">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J3">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N3">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P3">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q3">
-        <v>1208.816965448946</v>
+        <v>1578.166203826135</v>
       </c>
       <c r="R3">
-        <v>1208.816965448946</v>
+        <v>14203.49583443522</v>
       </c>
       <c r="S3">
-        <v>0.008496374484955032</v>
+        <v>0.009678089957499239</v>
       </c>
       <c r="T3">
-        <v>0.008496374484955032</v>
+        <v>0.01017213277492161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H4">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I4">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J4">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N4">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O4">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P4">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q4">
-        <v>873.3163347139246</v>
+        <v>1291.39262286111</v>
       </c>
       <c r="R4">
-        <v>873.3163347139246</v>
+        <v>11622.53360574999</v>
       </c>
       <c r="S4">
-        <v>0.006138251559699191</v>
+        <v>0.007919453568451669</v>
       </c>
       <c r="T4">
-        <v>0.006138251559699191</v>
+        <v>0.008323722300255699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H5">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I5">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J5">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N5">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O5">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P5">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q5">
-        <v>1340.321103419133</v>
+        <v>1669.522686633725</v>
       </c>
       <c r="R5">
-        <v>1340.321103419133</v>
+        <v>15025.70417970353</v>
       </c>
       <c r="S5">
-        <v>0.009420673559547309</v>
+        <v>0.01023833276124768</v>
       </c>
       <c r="T5">
-        <v>0.009420673559547309</v>
+        <v>0.01076097460331438</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.4267522690799</v>
+        <v>30.430785</v>
       </c>
       <c r="H6">
-        <v>25.4267522690799</v>
+        <v>91.292355</v>
       </c>
       <c r="I6">
-        <v>0.03379524283147143</v>
+        <v>0.03899521584805474</v>
       </c>
       <c r="J6">
-        <v>0.03379524283147143</v>
+        <v>0.03927806696289605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N6">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O6">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P6">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q6">
-        <v>629.8505354335006</v>
+        <v>794.8563036483301</v>
       </c>
       <c r="R6">
-        <v>629.8505354335006</v>
+        <v>4769.137821889981</v>
       </c>
       <c r="S6">
-        <v>0.004427011012874865</v>
+        <v>0.004874449086125129</v>
       </c>
       <c r="T6">
-        <v>0.004427011012874865</v>
+        <v>0.003415518525273984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H7">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I7">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J7">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N7">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O7">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P7">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q7">
-        <v>2696.536941158622</v>
+        <v>3377.34012419746</v>
       </c>
       <c r="R7">
-        <v>2696.536941158622</v>
+        <v>30396.06111777714</v>
       </c>
       <c r="S7">
-        <v>0.01895306594749015</v>
+        <v>0.02071150773588335</v>
       </c>
       <c r="T7">
-        <v>0.01895306594749015</v>
+        <v>0.02176877954053035</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H8">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I8">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J8">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N8">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P8">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q8">
-        <v>4312.268016995126</v>
+        <v>5200.759133428427</v>
       </c>
       <c r="R8">
-        <v>4312.268016995126</v>
+        <v>46806.83220085584</v>
       </c>
       <c r="S8">
-        <v>0.03030950507736933</v>
+        <v>0.03189360830220343</v>
       </c>
       <c r="T8">
-        <v>0.03030950507736933</v>
+        <v>0.03352169898668573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H9">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I9">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J9">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N9">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O9">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P9">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q9">
-        <v>3115.421280927846</v>
+        <v>4255.712713847298</v>
       </c>
       <c r="R9">
-        <v>3115.421280927846</v>
+        <v>38301.41442462568</v>
       </c>
       <c r="S9">
-        <v>0.02189726537410945</v>
+        <v>0.02609811968982255</v>
       </c>
       <c r="T9">
-        <v>0.02189726537410945</v>
+        <v>0.0274303648577852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H10">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I10">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J10">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N10">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O10">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P10">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q10">
-        <v>4781.388739552774</v>
+        <v>5501.819352059121</v>
       </c>
       <c r="R10">
-        <v>4781.388739552774</v>
+        <v>49516.37416853209</v>
       </c>
       <c r="S10">
-        <v>0.03360679941673374</v>
+        <v>0.03373985736739584</v>
       </c>
       <c r="T10">
-        <v>0.03360679941673374</v>
+        <v>0.03546219455029225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.70601565001149</v>
+        <v>100.282963</v>
       </c>
       <c r="H11">
-        <v>90.70601565001149</v>
+        <v>300.848889</v>
       </c>
       <c r="I11">
-        <v>0.1205593145647269</v>
+        <v>0.1285065695172664</v>
       </c>
       <c r="J11">
-        <v>0.1205593145647269</v>
+        <v>0.1294386896674413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N11">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O11">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P11">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q11">
-        <v>2246.894606106398</v>
+        <v>2619.404832608894</v>
       </c>
       <c r="R11">
-        <v>2246.894606106398</v>
+        <v>15716.42899565337</v>
       </c>
       <c r="S11">
-        <v>0.01579267874902419</v>
+        <v>0.01606347642196118</v>
       </c>
       <c r="T11">
-        <v>0.01579267874902419</v>
+        <v>0.01125565173214774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H12">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I12">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J12">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N12">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O12">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P12">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q12">
-        <v>9753.052546830657</v>
+        <v>11401.17891622913</v>
       </c>
       <c r="R12">
-        <v>9753.052546830657</v>
+        <v>102610.6102460622</v>
       </c>
       <c r="S12">
-        <v>0.06855097932757916</v>
+        <v>0.06991762648654806</v>
       </c>
       <c r="T12">
-        <v>0.06855097932757916</v>
+        <v>0.07348675028355656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H13">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I13">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J13">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N13">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P13">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q13">
-        <v>15596.95916782053</v>
+        <v>17556.65203975279</v>
       </c>
       <c r="R13">
-        <v>15596.95916782053</v>
+        <v>158009.8683577751</v>
       </c>
       <c r="S13">
-        <v>0.1096258653742006</v>
+        <v>0.1076660096897876</v>
       </c>
       <c r="T13">
-        <v>0.1096258653742006</v>
+        <v>0.1131620961078055</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H14">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I14">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J14">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N14">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O14">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P14">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q14">
-        <v>11268.1072506829</v>
+        <v>14366.37717327142</v>
       </c>
       <c r="R14">
-        <v>11268.1072506829</v>
+        <v>129297.3945594428</v>
       </c>
       <c r="S14">
-        <v>0.07919979754989832</v>
+        <v>0.08810167795330778</v>
       </c>
       <c r="T14">
-        <v>0.07919979754989832</v>
+        <v>0.09259905309518317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H15">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I15">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J15">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N15">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O15">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P15">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q15">
-        <v>17293.71287739368</v>
+        <v>18572.96703644955</v>
       </c>
       <c r="R15">
-        <v>17293.71287739368</v>
+        <v>167156.703328046</v>
       </c>
       <c r="S15">
-        <v>0.1215517857883932</v>
+        <v>0.113898552206121</v>
       </c>
       <c r="T15">
-        <v>0.1215517857883932</v>
+        <v>0.1197127946733176</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>328.072841667837</v>
+        <v>338.5338643333333</v>
       </c>
       <c r="H16">
-        <v>328.072841667837</v>
+        <v>1015.601593</v>
       </c>
       <c r="I16">
-        <v>0.4360486637555397</v>
+        <v>0.4338107318478445</v>
       </c>
       <c r="J16">
-        <v>0.4360486637555397</v>
+        <v>0.4369573703896443</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N16">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O16">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P16">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q16">
-        <v>8126.749842014119</v>
+        <v>8842.551254059945</v>
       </c>
       <c r="R16">
-        <v>8126.749842014119</v>
+        <v>53055.30752435967</v>
       </c>
       <c r="S16">
-        <v>0.05712023571546845</v>
+        <v>0.05422686551208011</v>
       </c>
       <c r="T16">
-        <v>0.05712023571546845</v>
+        <v>0.03799667622978144</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H17">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I17">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J17">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N17">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O17">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P17">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q17">
-        <v>8675.454548252937</v>
+        <v>9910.310752533025</v>
       </c>
       <c r="R17">
-        <v>8675.454548252937</v>
+        <v>89192.79677279724</v>
       </c>
       <c r="S17">
-        <v>0.0609768995439173</v>
+        <v>0.06077489096981904</v>
       </c>
       <c r="T17">
-        <v>0.0609768995439173</v>
+        <v>0.06387730048400232</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H18">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I18">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J18">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N18">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O18">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P18">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q18">
-        <v>13873.67797945008</v>
+        <v>15260.86721087872</v>
       </c>
       <c r="R18">
-        <v>13873.67797945008</v>
+        <v>137347.8048979085</v>
       </c>
       <c r="S18">
-        <v>0.09751349208877444</v>
+        <v>0.0935871300109315</v>
       </c>
       <c r="T18">
-        <v>0.09751349208877444</v>
+        <v>0.09836452406162927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H19">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I19">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J19">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N19">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O19">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P19">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q19">
-        <v>10023.11346409238</v>
+        <v>12487.76667933447</v>
       </c>
       <c r="R19">
-        <v>10023.11346409238</v>
+        <v>112389.9001140102</v>
       </c>
       <c r="S19">
-        <v>0.07044914815908122</v>
+        <v>0.07658111610668815</v>
       </c>
       <c r="T19">
-        <v>0.07044914815908122</v>
+        <v>0.08049039474832566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H20">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I20">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J20">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N20">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O20">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P20">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q20">
-        <v>15382.9602904292</v>
+        <v>16144.28440077892</v>
       </c>
       <c r="R20">
-        <v>15382.9602904292</v>
+        <v>145298.5596070103</v>
       </c>
       <c r="S20">
-        <v>0.1081217380715188</v>
+        <v>0.09900467793023623</v>
       </c>
       <c r="T20">
-        <v>0.1081217380715188</v>
+        <v>0.1040586245496049</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>291.824637746917</v>
+        <v>294.2656913333333</v>
       </c>
       <c r="H21">
-        <v>291.824637746917</v>
+        <v>882.7970740000001</v>
       </c>
       <c r="I21">
-        <v>0.3878703969934939</v>
+        <v>0.3770837377419078</v>
       </c>
       <c r="J21">
-        <v>0.3878703969934939</v>
+        <v>0.3798189080259864</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N21">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O21">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P21">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q21">
-        <v>7228.839231705556</v>
+        <v>7686.260466292072</v>
       </c>
       <c r="R21">
-        <v>7228.839231705556</v>
+        <v>46117.56279775243</v>
       </c>
       <c r="S21">
-        <v>0.05080911913020219</v>
+        <v>0.04713592272423291</v>
       </c>
       <c r="T21">
-        <v>0.05080911913020219</v>
+        <v>0.03302806418242435</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H22">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I22">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J22">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N22">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O22">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P22">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q22">
-        <v>485.9515955330542</v>
+        <v>567.777937324513</v>
       </c>
       <c r="R22">
-        <v>485.9515955330542</v>
+        <v>3406.667623947078</v>
       </c>
       <c r="S22">
-        <v>0.003415592976623067</v>
+        <v>0.003481893060431663</v>
       </c>
       <c r="T22">
-        <v>0.003415592976623067</v>
+        <v>0.002439756789085886</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H23">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I23">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J23">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N23">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O23">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P23">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q23">
-        <v>777.1276896820647</v>
+        <v>874.3200816948487</v>
       </c>
       <c r="R23">
-        <v>777.1276896820647</v>
+        <v>5245.920490169092</v>
       </c>
       <c r="S23">
-        <v>0.005462173400018856</v>
+        <v>0.005361759985593412</v>
       </c>
       <c r="T23">
-        <v>0.005462173400018856</v>
+        <v>0.003756976477812566</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H24">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I24">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J24">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N24">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O24">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P24">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q24">
-        <v>561.440089737477</v>
+        <v>715.4446095618212</v>
       </c>
       <c r="R24">
-        <v>561.440089737477</v>
+        <v>4292.667657370926</v>
       </c>
       <c r="S24">
-        <v>0.003946176625263314</v>
+        <v>0.004387457591070077</v>
       </c>
       <c r="T24">
-        <v>0.003946176625263314</v>
+        <v>0.003074284378886861</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H25">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I25">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J25">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N25">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O25">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P25">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q25">
-        <v>861.669444013291</v>
+        <v>924.9324996505976</v>
       </c>
       <c r="R25">
-        <v>861.669444013291</v>
+        <v>5549.594997903585</v>
       </c>
       <c r="S25">
-        <v>0.006056389418608896</v>
+        <v>0.005672140180502372</v>
       </c>
       <c r="T25">
-        <v>0.006056389418608896</v>
+        <v>0.003974459374209463</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.3464228347007</v>
+        <v>16.8589635</v>
       </c>
       <c r="H26">
-        <v>16.3464228347007</v>
+        <v>33.717927</v>
       </c>
       <c r="I26">
-        <v>0.02172638185476804</v>
+        <v>0.02160374504492659</v>
       </c>
       <c r="J26">
-        <v>0.02172638185476804</v>
+        <v>0.01450696495403192</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N26">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O26">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P26">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q26">
-        <v>404.9201040660945</v>
+        <v>440.3584531569631</v>
       </c>
       <c r="R26">
-        <v>404.9201040660945</v>
+        <v>1761.433812627852</v>
       </c>
       <c r="S26">
-        <v>0.00284604943425391</v>
+        <v>0.002700494227329066</v>
       </c>
       <c r="T26">
-        <v>0.00284604943425391</v>
+        <v>0.001261487934037148</v>
       </c>
     </row>
   </sheetData>
